--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H2">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N2">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O2">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P2">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q2">
-        <v>191.0785853783274</v>
+        <v>240.5895700550044</v>
       </c>
       <c r="R2">
-        <v>191.0785853783274</v>
+        <v>2165.30613049504</v>
       </c>
       <c r="S2">
-        <v>0.006951570025255227</v>
+        <v>0.008178908495683387</v>
       </c>
       <c r="T2">
-        <v>0.006951570025255227</v>
+        <v>0.008178908495683389</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H3">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I3">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J3">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P3">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q3">
-        <v>13908.04357627712</v>
+        <v>14766.65704428168</v>
       </c>
       <c r="R3">
-        <v>13908.04357627712</v>
+        <v>132899.9133985352</v>
       </c>
       <c r="S3">
-        <v>0.505984166898472</v>
+        <v>0.5019965608846068</v>
       </c>
       <c r="T3">
-        <v>0.505984166898472</v>
+        <v>0.5019965608846069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H4">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I4">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J4">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N4">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O4">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P4">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q4">
-        <v>3529.325157991303</v>
+        <v>4143.96140347572</v>
       </c>
       <c r="R4">
-        <v>3529.325157991303</v>
+        <v>37295.65263128147</v>
       </c>
       <c r="S4">
-        <v>0.1283992705362275</v>
+        <v>0.1408751057700583</v>
       </c>
       <c r="T4">
-        <v>0.1283992705362275</v>
+        <v>0.1408751057700584</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H5">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J5">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N5">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O5">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P5">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q5">
-        <v>62.63634022813935</v>
+        <v>75.08465109599999</v>
       </c>
       <c r="R5">
-        <v>62.63634022813935</v>
+        <v>675.761859864</v>
       </c>
       <c r="S5">
-        <v>0.002278753029071818</v>
+        <v>0.00255252333093283</v>
       </c>
       <c r="T5">
-        <v>0.002278753029071818</v>
+        <v>0.00255252333093283</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H6">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J6">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P6">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q6">
-        <v>4559.113453905074</v>
+        <v>4608.467822485799</v>
       </c>
       <c r="R6">
-        <v>4559.113453905074</v>
+        <v>41476.21040237219</v>
       </c>
       <c r="S6">
-        <v>0.1658636752263659</v>
+        <v>0.1566661290295971</v>
       </c>
       <c r="T6">
-        <v>0.1658636752263659</v>
+        <v>0.1566661290295971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H7">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J7">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N7">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O7">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P7">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q7">
-        <v>1156.927192725326</v>
+        <v>1293.2725889328</v>
       </c>
       <c r="R7">
-        <v>1156.927192725326</v>
+        <v>11639.4533003952</v>
       </c>
       <c r="S7">
-        <v>0.04208980497960212</v>
+        <v>0.04396515677067234</v>
       </c>
       <c r="T7">
-        <v>0.04208980497960212</v>
+        <v>0.04396515677067234</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H8">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I8">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J8">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N8">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O8">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P8">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q8">
-        <v>44.22387884942195</v>
+        <v>53.86630187125778</v>
       </c>
       <c r="R8">
-        <v>44.22387884942195</v>
+        <v>484.79671684132</v>
       </c>
       <c r="S8">
-        <v>0.001608895052271144</v>
+        <v>0.001831199722852292</v>
       </c>
       <c r="T8">
-        <v>0.001608895052271144</v>
+        <v>0.001831199722852292</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H9">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I9">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J9">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P9">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q9">
-        <v>3218.924993253185</v>
+        <v>3306.149995591078</v>
       </c>
       <c r="R9">
-        <v>3218.924993253185</v>
+        <v>29755.34996031971</v>
       </c>
       <c r="S9">
-        <v>0.1171066995934633</v>
+        <v>0.1123934769107461</v>
       </c>
       <c r="T9">
-        <v>0.1171066995934633</v>
+        <v>0.1123934769107461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H10">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I10">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J10">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N10">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O10">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P10">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q10">
-        <v>816.8390398023502</v>
+        <v>927.8036277775084</v>
       </c>
       <c r="R10">
-        <v>816.8390398023502</v>
+        <v>8350.232649997577</v>
       </c>
       <c r="S10">
-        <v>0.02971716465927074</v>
+        <v>0.03154093908485077</v>
       </c>
       <c r="T10">
-        <v>0.02971716465927074</v>
+        <v>0.03154093908485077</v>
       </c>
     </row>
   </sheetData>
